--- a/Output_testing/R1_201907/Country/HKD/MN/LEBANON_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/LEBANON_201907_HKD_MN.xlsx
@@ -810,136 +810,447 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>312.2475</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>58.89022220017937</v>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>51.702329</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>11.11255176120251</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>51.223319</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>12.095073633494</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>44.344368</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.4912115338813</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>30.235697</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>5.702485735537664</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>12.76003576612925</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38.44083</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>8.262214128082823</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>35.404055</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>8.359759978639246</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>51.703316</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>12.23222811877958</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>27.732028</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.230291006274176</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>3.110270656751002</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>15.387662</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.307320845428239</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>34.84949</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>8.228813670580633</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>21.084991</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.988392229899034</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>15.36311</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.897499456635514</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-2.103731960242283</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>41.806553</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>8.985620051467238</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>40.445219</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>9.550101623203885</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>39.866148</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>9.431731932880831</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>14.750622</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.78198354565162</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-36.99001656387858</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>42.885586</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>9.217540166024275</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>30.440076</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>7.187643593129008</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>33.633342</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>7.957143633513376</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>14.011688</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.642619779884825</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-13.607737841122</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>22.001783</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.728915643746831</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>22.378711</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>5.284158907541349</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>22.911917</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>5.420615485910883</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>12.342576</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.327823419443233</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>7.862213370549975</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>15.884512</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.414110451415881</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>17.064932</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>4.029446219417526</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>15.707926</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.716259400169012</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>11.734663</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.213170358495179</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>45.57213539056382</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>57.62641</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>12.38583399090741</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>32.865739</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>7.76040172688137</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>35.062764</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>8.295323412582134</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>11.035057</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.081223896817892</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-13.00130619566256</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>21.294063</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>4.576803054535652</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>25.707039</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>6.07005824054669</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>20.993549</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>4.966758425915603</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>10.147378</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.913806660323018</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-6.584657182053066</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>158.230908</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>34.00908990718914</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>133.116817</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>31.43212378470331</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>137.372776</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>32.50033582646824</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>70.61928</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>13.31887394075752</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-10.45143360956047</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1282,561 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>6.382993</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>66.99175317284963</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>5.680402</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>91.78486632835781</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>5.597717</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>84.12770503858454</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>3.445926</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>67.47482856795993</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>23.37413670262471</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>3.453710576907851</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>3.769406295589324</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1.469905</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>28.78227445574488</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.187192145111244</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.667709299120252</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3.38776161048827</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.346396500475819</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>4.383068563610435</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>7.054219725682925</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.169595338145049</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-85.60147140711743</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.060261367829733</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.645454013704062</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.5974300827808573</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.2269051376743202</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-34.03165205510646</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.97649503129084</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.063477246874095</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE AND STATIONERY SUPPLIES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.4482597819100307</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>1.939063</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>20.35114716287568</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>3.340040562433276</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.5694042880646446</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.1406377059345334</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1868,447 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>312.2475</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>59.46295874485546</v>
+      </c>
+      <c r="K44" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>51.702329</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>11.34488252374515</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>51.223319</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>12.27444396932979</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>44.344368</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>10.65900527134683</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>30.235697</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>5.757945230411612</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>12.76003576612925</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>38.44083</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>8.434952716835218</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>35.404055</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>8.483735491340779</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>51.703316</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>12.42786722747094</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>27.732028</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.281158173804998</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>3.110270656751002</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>15.387662</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.376467193675112</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>34.84949</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>8.35084724526966</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>21.084991</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.068175291511664</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>15.36311</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.925679072282969</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-2.103731960242283</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>41.806553</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>9.17348292970952</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>40.445219</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>9.691729941255327</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>39.866148</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>9.582580626254341</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>14.750622</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.809039711917493</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-36.99001656387858</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>42.885586</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>9.410251811518389</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>30.440076</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>7.294236581665875</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>33.633342</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>8.084408141097214</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>14.011688</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.6683205645835</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-13.607737841122</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>22.001783</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.827783356682698</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>22.378711</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>5.362523156207906</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>22.911917</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>5.507311415051875</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>12.342576</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.35046265380265</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>7.862213370549975</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>57.62641</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>12.64478533868702</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>32.865739</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>7.875488737192471</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>35.062764</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>8.427996680525245</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>11.035057</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.1014648288237</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-13.00130619566256</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>21.294063</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>4.672490540769029</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>25.707039</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>6.160077401912903</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>20.993549</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>5.046195482034562</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>10.147378</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.932419376880371</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-6.584657182053066</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>9.501519</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.084888997014671</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>11.38453</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.728030481627989</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>10.110209</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.430179431701861</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>8.288736999999999</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.57846844659431</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>57.34142825523341</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>155.085873</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>34.03001459136319</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>132.608397</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>31.77643250409333</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>136.31666</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>32.76628043300547</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>68.958226</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>13.13208319604294</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-11.9962271750773</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2340,461 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>40.89848407314874</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>61.15609336864121</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>6.350969</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>7.509139208545161</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>4.750352</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>9.895253484068885</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>6.45616</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.407060089467096</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>19.246178</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>15.18736850009662</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>10.400256</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>12.29685896884508</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>2.742903</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>5.713623004613763</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>29.449513</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>15.54116694699983</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>5.483097</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>4.326771510726664</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-68.09040979848604</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>1.271869</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.503808533159763</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>0.866279</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.804508443358663</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1.771195</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.9346992322314926</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>4.167437</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.288569887482968</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>403.316686694968</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>29.887307</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>35.33759160712739</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>16.616094</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>34.61226916344643</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>34.778396</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>18.35333774058916</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3.674571</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.899643963428404</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-76.84682027512717</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.3425774537837374</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>12.820677</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>6.765758117309476</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>3.399182</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.682331506696833</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-52.68358385052878</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.2039312699543832</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>2.282445</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.20449729652049</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>3.368206</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.657888008010549</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>141.5530451894584</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>15.753016</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>18.62575460507511</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>4.614968</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>9.613240909487637</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.2192517597535866</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>2.118929</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.672069932458343</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>412.420135714873</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1.743033</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.060894556734271</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.9709169845585076</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>3.056763</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.613122230592134</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>2.01872</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.592993920066366</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>6.069777217318206</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.077675</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.274201085939627</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>1.240399</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.5838216886634</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>2.47191</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.304482216325898</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.524864</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.203286776238448</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-23.48532593642243</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>18.0774</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>21.37401601685574</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>16.446914</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>34.25985759806459</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>18.491049</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>9.758140297062102</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>4.223719</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>3.332982626153598</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-48.27581308446923</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
